--- a/문서/CharName.xlsx
+++ b/문서/CharName.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DA3AD1-1B23-4A67-BA5E-BBEA8628ECFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A397DA-78DE-48DF-8C64-FEE8920F3158}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="1725" windowWidth="7050" windowHeight="11295" xr2:uid="{12372DDD-AFE0-430B-86BF-9075BE5E5AEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12372DDD-AFE0-430B-86BF-9075BE5E5AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
   <si>
     <t>First</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,585 @@
   <si>
     <t>위버</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존슨</t>
+  </si>
+  <si>
+    <t>윌리엄스</t>
+  </si>
+  <si>
+    <t>브라운</t>
+  </si>
+  <si>
+    <t>존스</t>
+  </si>
+  <si>
+    <t>데이비스</t>
+  </si>
+  <si>
+    <t>밀러</t>
+  </si>
+  <si>
+    <t>윌슨</t>
+  </si>
+  <si>
+    <t>무어</t>
+  </si>
+  <si>
+    <t>타일러</t>
+  </si>
+  <si>
+    <t>앤더슨</t>
+  </si>
+  <si>
+    <t>토마스</t>
+  </si>
+  <si>
+    <t>잭슨</t>
+  </si>
+  <si>
+    <t>화이트</t>
+  </si>
+  <si>
+    <t>해리스</t>
+  </si>
+  <si>
+    <t>마틴</t>
+  </si>
+  <si>
+    <t>톰슨</t>
+  </si>
+  <si>
+    <t>가르시아</t>
+  </si>
+  <si>
+    <t>마르티네즈</t>
+  </si>
+  <si>
+    <t>로빈슨</t>
+  </si>
+  <si>
+    <t>클라크</t>
+  </si>
+  <si>
+    <t>로드리게즈</t>
+  </si>
+  <si>
+    <t>루이스</t>
+  </si>
+  <si>
+    <t>리</t>
+  </si>
+  <si>
+    <t>워커</t>
+  </si>
+  <si>
+    <t>홀</t>
+  </si>
+  <si>
+    <t>앨런</t>
+  </si>
+  <si>
+    <t>영</t>
+  </si>
+  <si>
+    <t>헤르난데스</t>
+  </si>
+  <si>
+    <t>킹</t>
+  </si>
+  <si>
+    <t>라이트</t>
+  </si>
+  <si>
+    <t>로페즈</t>
+  </si>
+  <si>
+    <t>힐</t>
+  </si>
+  <si>
+    <t>스콧</t>
+  </si>
+  <si>
+    <t>그린</t>
+  </si>
+  <si>
+    <t>아담스</t>
+  </si>
+  <si>
+    <t>베이커</t>
+  </si>
+  <si>
+    <t>곤잘레즈</t>
+  </si>
+  <si>
+    <t>넬슨</t>
+  </si>
+  <si>
+    <t>카터</t>
+  </si>
+  <si>
+    <t>미첼</t>
+  </si>
+  <si>
+    <t>퍼레즈</t>
+  </si>
+  <si>
+    <t>로버츠</t>
+  </si>
+  <si>
+    <t>터너</t>
+  </si>
+  <si>
+    <t>필립스</t>
+  </si>
+  <si>
+    <t>캠벨</t>
+  </si>
+  <si>
+    <t>파커</t>
+  </si>
+  <si>
+    <t>에반스</t>
+  </si>
+  <si>
+    <t>에드워즈</t>
+  </si>
+  <si>
+    <t>콜린스</t>
+  </si>
+  <si>
+    <t>스튜어트</t>
+  </si>
+  <si>
+    <t>산체스</t>
+  </si>
+  <si>
+    <t>모리스</t>
+  </si>
+  <si>
+    <t>로저스</t>
+  </si>
+  <si>
+    <t>리드</t>
+  </si>
+  <si>
+    <t>쿡</t>
+  </si>
+  <si>
+    <t>모건</t>
+  </si>
+  <si>
+    <t>벨</t>
+  </si>
+  <si>
+    <t>머피</t>
+  </si>
+  <si>
+    <t>벨리</t>
+  </si>
+  <si>
+    <t>리베라</t>
+  </si>
+  <si>
+    <t>쿠퍼</t>
+  </si>
+  <si>
+    <t>리차드슨</t>
+  </si>
+  <si>
+    <t>콕스</t>
+  </si>
+  <si>
+    <t>하워드</t>
+  </si>
+  <si>
+    <t>워드</t>
+  </si>
+  <si>
+    <t>토레스</t>
+  </si>
+  <si>
+    <t>피터슨</t>
+  </si>
+  <si>
+    <t>그레이</t>
+  </si>
+  <si>
+    <t>라미레즈</t>
+  </si>
+  <si>
+    <t>제임스</t>
+  </si>
+  <si>
+    <t>왓슨</t>
+  </si>
+  <si>
+    <t>브룩스</t>
+  </si>
+  <si>
+    <t>켈리</t>
+  </si>
+  <si>
+    <t>샌더스</t>
+  </si>
+  <si>
+    <t>프라이스</t>
+  </si>
+  <si>
+    <t>베넷</t>
+  </si>
+  <si>
+    <t>우드</t>
+  </si>
+  <si>
+    <t>반스</t>
+  </si>
+  <si>
+    <t>로스</t>
+  </si>
+  <si>
+    <t>핸더슨</t>
+  </si>
+  <si>
+    <t>콜먼</t>
+  </si>
+  <si>
+    <t>잰킨슨</t>
+  </si>
+  <si>
+    <t>페리</t>
+  </si>
+  <si>
+    <t>파웰</t>
+  </si>
+  <si>
+    <t>롱</t>
+  </si>
+  <si>
+    <t>패터슨</t>
+  </si>
+  <si>
+    <t>휴즈</t>
+  </si>
+  <si>
+    <t>플로레스</t>
+  </si>
+  <si>
+    <t>워싱턴</t>
+  </si>
+  <si>
+    <t>버틀러</t>
+  </si>
+  <si>
+    <t>심슨</t>
+  </si>
+  <si>
+    <t>포스터</t>
+  </si>
+  <si>
+    <t>곤잘레스</t>
+  </si>
+  <si>
+    <t>브라이언트</t>
+  </si>
+  <si>
+    <t>알렉산더</t>
+  </si>
+  <si>
+    <t>러셀</t>
+  </si>
+  <si>
+    <t>그리핀</t>
+  </si>
+  <si>
+    <t>디아즈</t>
+  </si>
+  <si>
+    <t>포드</t>
+  </si>
+  <si>
+    <t>헤밀턴</t>
+  </si>
+  <si>
+    <t>그레이엄</t>
+  </si>
+  <si>
+    <t>설리번</t>
+  </si>
+  <si>
+    <t>월리스</t>
+  </si>
+  <si>
+    <t>우즈</t>
+  </si>
+  <si>
+    <t>콜</t>
+  </si>
+  <si>
+    <t>웨스트</t>
+  </si>
+  <si>
+    <t>요르단</t>
+  </si>
+  <si>
+    <t>오웬스</t>
+  </si>
+  <si>
+    <t>레이놀즈</t>
+  </si>
+  <si>
+    <t>피셔</t>
+  </si>
+  <si>
+    <t>엘리스</t>
+  </si>
+  <si>
+    <t>해리슨</t>
+  </si>
+  <si>
+    <t>깁슨</t>
+  </si>
+  <si>
+    <t>맥도날드</t>
+  </si>
+  <si>
+    <t>크루즈</t>
+  </si>
+  <si>
+    <t>마샬</t>
+  </si>
+  <si>
+    <t>오르티즈</t>
+  </si>
+  <si>
+    <t>고메즈</t>
+  </si>
+  <si>
+    <t>머레이</t>
+  </si>
+  <si>
+    <t>프리맨</t>
+  </si>
+  <si>
+    <t>웰즈</t>
+  </si>
+  <si>
+    <t>웹</t>
+  </si>
+  <si>
+    <t>스티븐즈</t>
+  </si>
+  <si>
+    <t>터커</t>
+  </si>
+  <si>
+    <t>포터</t>
+  </si>
+  <si>
+    <t>헌터</t>
+  </si>
+  <si>
+    <t>힉스</t>
+  </si>
+  <si>
+    <t>크로포드</t>
+  </si>
+  <si>
+    <t>헨리</t>
+  </si>
+  <si>
+    <t>보이드</t>
+  </si>
+  <si>
+    <t>메이슨</t>
+  </si>
+  <si>
+    <t>모랄레즈</t>
+  </si>
+  <si>
+    <t>케네디</t>
+  </si>
+  <si>
+    <t>워렌</t>
+  </si>
+  <si>
+    <t>딕슨</t>
+  </si>
+  <si>
+    <t>로머슨</t>
+  </si>
+  <si>
+    <t>레예스</t>
+  </si>
+  <si>
+    <t>번즈</t>
+  </si>
+  <si>
+    <t>고든</t>
+  </si>
+  <si>
+    <t>쇼</t>
+  </si>
+  <si>
+    <t>홈즈</t>
+  </si>
+  <si>
+    <t>라이스</t>
+  </si>
+  <si>
+    <t>로버트슨</t>
+  </si>
+  <si>
+    <t>헌트</t>
+  </si>
+  <si>
+    <t>블랙</t>
+  </si>
+  <si>
+    <t>다니엘스</t>
+  </si>
+  <si>
+    <t>파머</t>
+  </si>
+  <si>
+    <t>밀스</t>
+  </si>
+  <si>
+    <t>니콜스</t>
+  </si>
+  <si>
+    <t>그랜트</t>
+  </si>
+  <si>
+    <t>나이트</t>
+  </si>
+  <si>
+    <t>퍼거슨</t>
+  </si>
+  <si>
+    <t>로즈</t>
+  </si>
+  <si>
+    <t>스톤</t>
+  </si>
+  <si>
+    <t>호킨스</t>
+  </si>
+  <si>
+    <t>던</t>
+  </si>
+  <si>
+    <t>퍼킨스</t>
+  </si>
+  <si>
+    <t>허드슨</t>
+  </si>
+  <si>
+    <t>스펜서</t>
+  </si>
+  <si>
+    <t>가드너</t>
+  </si>
+  <si>
+    <t>스티븐스</t>
+  </si>
+  <si>
+    <t>페인</t>
+  </si>
+  <si>
+    <t>피어슨</t>
+  </si>
+  <si>
+    <t>베리</t>
+  </si>
+  <si>
+    <t>매튜스</t>
+  </si>
+  <si>
+    <t>아놀드</t>
+  </si>
+  <si>
+    <t>바그너</t>
+  </si>
+  <si>
+    <t>레이</t>
+  </si>
+  <si>
+    <t>왓킨스</t>
+  </si>
+  <si>
+    <t>올슨</t>
+  </si>
+  <si>
+    <t>캐롤</t>
+  </si>
+  <si>
+    <t>던컨</t>
+  </si>
+  <si>
+    <t>스나이더</t>
+  </si>
+  <si>
+    <t>허트</t>
+  </si>
+  <si>
+    <t>커닝햄</t>
+  </si>
+  <si>
+    <t>브래들리</t>
+  </si>
+  <si>
+    <t>레인</t>
+  </si>
+  <si>
+    <t>앤드류스</t>
+  </si>
+  <si>
+    <t>루이즈</t>
+  </si>
+  <si>
+    <t>하퍼</t>
+  </si>
+  <si>
+    <t>폭스</t>
+  </si>
+  <si>
+    <t>라일리</t>
+  </si>
+  <si>
+    <t>암스트롱</t>
+  </si>
+  <si>
+    <t>카펜더</t>
+  </si>
+  <si>
+    <t>위버</t>
+  </si>
+  <si>
+    <t>로렌스</t>
+  </si>
+  <si>
+    <t>엘리엇</t>
+  </si>
+  <si>
+    <t>차베스</t>
+  </si>
+  <si>
+    <t>심즈</t>
+  </si>
+  <si>
+    <t>서스틴</t>
+  </si>
+  <si>
+    <t>피터스</t>
+  </si>
+  <si>
+    <t>프랭클린</t>
+  </si>
+  <si>
+    <t>로손</t>
   </si>
 </sst>
 </file>
@@ -528,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCDD63-6CBC-452D-A6AD-5BBDFAEED1E2}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,55 +1215,844 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
